--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel40/field_36ha_100ha_6%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel40/field_36ha_100ha_6%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -2577,28 +2577,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>286.8251782336951</v>
+        <v>338.8975992565992</v>
       </c>
       <c r="AB2" t="n">
-        <v>392.4468626931437</v>
+        <v>463.6946464097632</v>
       </c>
       <c r="AC2" t="n">
-        <v>354.9922849203404</v>
+        <v>419.4402801559382</v>
       </c>
       <c r="AD2" t="n">
-        <v>286825.1782336951</v>
+        <v>338897.5992565992</v>
       </c>
       <c r="AE2" t="n">
-        <v>392446.8626931437</v>
+        <v>463694.6464097631</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.121743113638446e-06</v>
+        <v>3.586912006438767e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.548611111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>354992.2849203403</v>
+        <v>419440.2801559382</v>
       </c>
     </row>
     <row r="3">
@@ -2683,28 +2683,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>179.2580395421929</v>
+        <v>220.830635505944</v>
       </c>
       <c r="AB3" t="n">
-        <v>245.2687580080808</v>
+        <v>302.1502178591496</v>
       </c>
       <c r="AC3" t="n">
-        <v>221.8606519807247</v>
+        <v>273.3134251372558</v>
       </c>
       <c r="AD3" t="n">
-        <v>179258.0395421929</v>
+        <v>220830.635505944</v>
       </c>
       <c r="AE3" t="n">
-        <v>245268.7580080808</v>
+        <v>302150.2178591496</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.91161975792365e-06</v>
+        <v>4.922237664281317e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.959876543209877</v>
       </c>
       <c r="AH3" t="n">
-        <v>221860.6519807247</v>
+        <v>273313.4251372557</v>
       </c>
     </row>
     <row r="4">
@@ -2789,28 +2789,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>160.7129479724916</v>
+        <v>191.8711492402131</v>
       </c>
       <c r="AB4" t="n">
-        <v>219.8945455707305</v>
+        <v>262.5265711480309</v>
       </c>
       <c r="AC4" t="n">
-        <v>198.9081187654561</v>
+        <v>237.4714036560963</v>
       </c>
       <c r="AD4" t="n">
-        <v>160712.9479724916</v>
+        <v>191871.1492402131</v>
       </c>
       <c r="AE4" t="n">
-        <v>219894.5455707305</v>
+        <v>262526.5711480309</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.222581168217048e-06</v>
+        <v>5.447933357106167e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.288580246913581</v>
       </c>
       <c r="AH4" t="n">
-        <v>198908.1187654561</v>
+        <v>237471.4036560963</v>
       </c>
     </row>
     <row r="5">
@@ -2895,28 +2895,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>140.6783121513138</v>
+        <v>182.1655672604933</v>
       </c>
       <c r="AB5" t="n">
-        <v>192.4822729744564</v>
+        <v>249.2469657033275</v>
       </c>
       <c r="AC5" t="n">
-        <v>174.1120349923955</v>
+        <v>225.4591851169878</v>
       </c>
       <c r="AD5" t="n">
-        <v>140678.3121513138</v>
+        <v>182165.5672604933</v>
       </c>
       <c r="AE5" t="n">
-        <v>192482.2729744564</v>
+        <v>249246.9657033275</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.390272399945948e-06</v>
+        <v>5.731423704545745e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.97608024691358</v>
       </c>
       <c r="AH5" t="n">
-        <v>174112.0349923955</v>
+        <v>225459.1851169878</v>
       </c>
     </row>
     <row r="6">
@@ -3001,28 +3001,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>133.7317792523051</v>
+        <v>164.9752318660471</v>
       </c>
       <c r="AB6" t="n">
-        <v>182.9777202026347</v>
+        <v>225.7263904325845</v>
       </c>
       <c r="AC6" t="n">
-        <v>165.5145833973899</v>
+        <v>204.1833805387423</v>
       </c>
       <c r="AD6" t="n">
-        <v>133731.7792523051</v>
+        <v>164975.2318660471</v>
       </c>
       <c r="AE6" t="n">
-        <v>182977.7202026348</v>
+        <v>225726.3904325845</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.499037993716869e-06</v>
+        <v>5.915297337351059e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.790895061728396</v>
       </c>
       <c r="AH6" t="n">
-        <v>165514.5833973899</v>
+        <v>204183.3805387423</v>
       </c>
     </row>
     <row r="7">
@@ -3107,28 +3107,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>131.7580012163729</v>
+        <v>163.001453830115</v>
       </c>
       <c r="AB7" t="n">
-        <v>180.2771100169324</v>
+        <v>223.0257802468821</v>
       </c>
       <c r="AC7" t="n">
-        <v>163.0717156574799</v>
+        <v>201.7405127988323</v>
       </c>
       <c r="AD7" t="n">
-        <v>131758.0012163729</v>
+        <v>163001.453830115</v>
       </c>
       <c r="AE7" t="n">
-        <v>180277.1100169324</v>
+        <v>223025.7802468821</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.52314393651786e-06</v>
+        <v>5.95604962970144e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.752314814814815</v>
       </c>
       <c r="AH7" t="n">
-        <v>163071.7156574799</v>
+        <v>201740.5127988323</v>
       </c>
     </row>
     <row r="8">
@@ -3213,28 +3213,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>132.0729496328487</v>
+        <v>163.3164022465908</v>
       </c>
       <c r="AB8" t="n">
-        <v>180.7080363348979</v>
+        <v>223.4567065648476</v>
       </c>
       <c r="AC8" t="n">
-        <v>163.4615149724678</v>
+        <v>202.1303121138202</v>
       </c>
       <c r="AD8" t="n">
-        <v>132072.9496328488</v>
+        <v>163316.4022465908</v>
       </c>
       <c r="AE8" t="n">
-        <v>180708.0363348979</v>
+        <v>223456.7065648476</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.522513715791036e-06</v>
+        <v>5.954984210293587e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.752314814814815</v>
       </c>
       <c r="AH8" t="n">
-        <v>163461.5149724678</v>
+        <v>202130.3121138202</v>
       </c>
     </row>
   </sheetData>
@@ -3510,28 +3510,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>224.2059578456083</v>
+        <v>264.482977875031</v>
       </c>
       <c r="AB2" t="n">
-        <v>306.7684827929881</v>
+        <v>361.8772784941046</v>
       </c>
       <c r="AC2" t="n">
-        <v>277.4909293475857</v>
+        <v>327.3402189325767</v>
       </c>
       <c r="AD2" t="n">
-        <v>224205.9578456083</v>
+        <v>264482.977875031</v>
       </c>
       <c r="AE2" t="n">
-        <v>306768.4827929881</v>
+        <v>361877.2784941046</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.509535953780367e-06</v>
+        <v>4.345991797712351e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.352623456790123</v>
       </c>
       <c r="AH2" t="n">
-        <v>277490.9293475857</v>
+        <v>327340.2189325767</v>
       </c>
     </row>
     <row r="3">
@@ -3616,28 +3616,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>154.1419005300136</v>
+        <v>184.328352715573</v>
       </c>
       <c r="AB3" t="n">
-        <v>210.9037485657831</v>
+        <v>252.2061841783262</v>
       </c>
       <c r="AC3" t="n">
-        <v>190.7753908079952</v>
+        <v>228.1359799340228</v>
       </c>
       <c r="AD3" t="n">
-        <v>154141.9005300136</v>
+        <v>184328.352715573</v>
       </c>
       <c r="AE3" t="n">
-        <v>210903.7485657831</v>
+        <v>252206.1841783262</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.25423100949398e-06</v>
+        <v>5.635647998514306e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.442901234567901</v>
       </c>
       <c r="AH3" t="n">
-        <v>190775.3908079952</v>
+        <v>228135.9799340228</v>
       </c>
     </row>
     <row r="4">
@@ -3722,28 +3722,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>130.729828359267</v>
+        <v>170.9214180255637</v>
       </c>
       <c r="AB4" t="n">
-        <v>178.8703185540556</v>
+        <v>233.8622246632502</v>
       </c>
       <c r="AC4" t="n">
-        <v>161.7991863973754</v>
+        <v>211.5427421691509</v>
       </c>
       <c r="AD4" t="n">
-        <v>130729.828359267</v>
+        <v>170921.4180255637</v>
       </c>
       <c r="AE4" t="n">
-        <v>178870.3185540556</v>
+        <v>233862.2246632502</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.518489910128036e-06</v>
+        <v>6.093289186279735e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.95679012345679</v>
       </c>
       <c r="AH4" t="n">
-        <v>161799.1863973754</v>
+        <v>211542.7421691509</v>
       </c>
     </row>
     <row r="5">
@@ -3828,28 +3828,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>122.829190162679</v>
+        <v>153.100893694259</v>
       </c>
       <c r="AB5" t="n">
-        <v>168.0603168219317</v>
+        <v>209.4793970871241</v>
       </c>
       <c r="AC5" t="n">
-        <v>152.0208760586293</v>
+        <v>189.4869774353691</v>
       </c>
       <c r="AD5" t="n">
-        <v>122829.190162679</v>
+        <v>153100.893694259</v>
       </c>
       <c r="AE5" t="n">
-        <v>168060.3168219317</v>
+        <v>209479.3970871241</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.66479937135491e-06</v>
+        <v>6.346666595542131e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.717592592592593</v>
       </c>
       <c r="AH5" t="n">
-        <v>152020.8760586292</v>
+        <v>189486.9774353691</v>
       </c>
     </row>
     <row r="6">
@@ -3934,28 +3934,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>123.1064502067714</v>
+        <v>153.3781537383514</v>
       </c>
       <c r="AB6" t="n">
-        <v>168.4396762461086</v>
+        <v>209.858756511301</v>
       </c>
       <c r="AC6" t="n">
-        <v>152.3640299517971</v>
+        <v>189.830131328537</v>
       </c>
       <c r="AD6" t="n">
-        <v>123106.4502067714</v>
+        <v>153378.1537383514</v>
       </c>
       <c r="AE6" t="n">
-        <v>168439.6762461086</v>
+        <v>209858.756511301</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.663549791849445e-06</v>
+        <v>6.344502584991431e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.721450617283951</v>
       </c>
       <c r="AH6" t="n">
-        <v>152364.0299517971</v>
+        <v>189830.131328537</v>
       </c>
     </row>
   </sheetData>
@@ -4231,28 +4231,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>117.2003770236041</v>
+        <v>144.4612225157293</v>
       </c>
       <c r="AB2" t="n">
-        <v>160.3587263593436</v>
+        <v>197.6582178252739</v>
       </c>
       <c r="AC2" t="n">
-        <v>145.0543145805379</v>
+        <v>178.7939949311368</v>
       </c>
       <c r="AD2" t="n">
-        <v>117200.3770236041</v>
+        <v>144461.2225157293</v>
       </c>
       <c r="AE2" t="n">
-        <v>160358.7263593436</v>
+        <v>197658.2178252739</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.767408918850625e-06</v>
+        <v>7.128748382134043e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.207561728395062</v>
       </c>
       <c r="AH2" t="n">
-        <v>145054.314580538</v>
+        <v>178793.9949311368</v>
       </c>
     </row>
     <row r="3">
@@ -4337,28 +4337,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>102.0914937528462</v>
+        <v>129.4375905909919</v>
       </c>
       <c r="AB3" t="n">
-        <v>139.6860857114162</v>
+        <v>177.1022218299958</v>
       </c>
       <c r="AC3" t="n">
-        <v>126.3546417418088</v>
+        <v>160.1998343431199</v>
       </c>
       <c r="AD3" t="n">
-        <v>102091.4937528462</v>
+        <v>129437.5905909919</v>
       </c>
       <c r="AE3" t="n">
-        <v>139686.0857114162</v>
+        <v>177102.2218299957</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.961344634791072e-06</v>
+        <v>7.495716489665693e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.902777777777779</v>
       </c>
       <c r="AH3" t="n">
-        <v>126354.6417418088</v>
+        <v>160199.8343431199</v>
       </c>
     </row>
   </sheetData>
@@ -4634,28 +4634,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>144.2227526980264</v>
+        <v>182.1239349593441</v>
       </c>
       <c r="AB2" t="n">
-        <v>197.3319329001471</v>
+        <v>249.1900025522077</v>
       </c>
       <c r="AC2" t="n">
-        <v>178.4988501813202</v>
+        <v>225.4076584490626</v>
       </c>
       <c r="AD2" t="n">
-        <v>144222.7526980264</v>
+        <v>182123.9349593441</v>
       </c>
       <c r="AE2" t="n">
-        <v>197331.932900147</v>
+        <v>249190.0025522077</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.249857382743868e-06</v>
+        <v>5.92053436429696e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.886574074074074</v>
       </c>
       <c r="AH2" t="n">
-        <v>178498.8501813202</v>
+        <v>225407.6584490626</v>
       </c>
     </row>
     <row r="3">
@@ -4740,28 +4740,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>109.8620220204095</v>
+        <v>138.3519143573265</v>
       </c>
       <c r="AB3" t="n">
-        <v>150.3180652986038</v>
+        <v>189.2991928792974</v>
       </c>
       <c r="AC3" t="n">
-        <v>135.9719201192757</v>
+        <v>171.2327435940365</v>
       </c>
       <c r="AD3" t="n">
-        <v>109862.0220204095</v>
+        <v>138351.9143573265</v>
       </c>
       <c r="AE3" t="n">
-        <v>150318.0652986038</v>
+        <v>189299.1928792975</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.853431323713179e-06</v>
+        <v>7.020115003705157e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.806327160493828</v>
       </c>
       <c r="AH3" t="n">
-        <v>135971.9201192757</v>
+        <v>171232.7435940365</v>
       </c>
     </row>
     <row r="4">
@@ -4846,28 +4846,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>109.4446921692525</v>
+        <v>137.9345845061695</v>
       </c>
       <c r="AB4" t="n">
-        <v>149.7470561849574</v>
+        <v>188.7281837656511</v>
       </c>
       <c r="AC4" t="n">
-        <v>135.4554073140192</v>
+        <v>170.7162307887801</v>
       </c>
       <c r="AD4" t="n">
-        <v>109444.6921692525</v>
+        <v>137934.5845061695</v>
       </c>
       <c r="AE4" t="n">
-        <v>149747.0561849574</v>
+        <v>188728.1837656511</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.875528150032898e-06</v>
+        <v>7.060370622386287e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.771604938271605</v>
       </c>
       <c r="AH4" t="n">
-        <v>135455.4073140192</v>
+        <v>170716.2307887801</v>
       </c>
     </row>
   </sheetData>
@@ -5143,28 +5143,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>105.5158936044031</v>
+        <v>131.8385921595841</v>
       </c>
       <c r="AB2" t="n">
-        <v>144.3715006621732</v>
+        <v>180.3873781008554</v>
       </c>
       <c r="AC2" t="n">
-        <v>130.5928872656882</v>
+        <v>163.1714599102355</v>
       </c>
       <c r="AD2" t="n">
-        <v>105515.8936044031</v>
+        <v>131838.5921595841</v>
       </c>
       <c r="AE2" t="n">
-        <v>144371.5006621732</v>
+        <v>180387.3781008554</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.964337838432764e-06</v>
+        <v>7.768824851822674e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.126543209876544</v>
       </c>
       <c r="AH2" t="n">
-        <v>130592.8872656882</v>
+        <v>163171.4599102355</v>
       </c>
     </row>
   </sheetData>
@@ -5440,28 +5440,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>235.9930319778423</v>
+        <v>286.786223573354</v>
       </c>
       <c r="AB2" t="n">
-        <v>322.8960776297129</v>
+        <v>392.3935632083067</v>
       </c>
       <c r="AC2" t="n">
-        <v>292.0793291683202</v>
+        <v>354.9440722635299</v>
       </c>
       <c r="AD2" t="n">
-        <v>235993.0319778423</v>
+        <v>286786.223573354</v>
       </c>
       <c r="AE2" t="n">
-        <v>322896.0776297129</v>
+        <v>392393.5632083067</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.40719986147731e-06</v>
+        <v>4.141542123861144e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.630401234567902</v>
       </c>
       <c r="AH2" t="n">
-        <v>292079.3291683202</v>
+        <v>354944.0722635299</v>
       </c>
     </row>
     <row r="3">
@@ -5546,28 +5546,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>160.5197532947485</v>
+        <v>191.132213619368</v>
       </c>
       <c r="AB3" t="n">
-        <v>219.6302080894948</v>
+        <v>261.5155268320523</v>
       </c>
       <c r="AC3" t="n">
-        <v>198.6690092824295</v>
+        <v>236.5568519906248</v>
       </c>
       <c r="AD3" t="n">
-        <v>160519.7532947485</v>
+        <v>191132.213619368</v>
       </c>
       <c r="AE3" t="n">
-        <v>219630.2080894948</v>
+        <v>261515.5268320523</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.159258007826258e-06</v>
+        <v>5.435444031443342e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.574074074074074</v>
       </c>
       <c r="AH3" t="n">
-        <v>198669.0092824295</v>
+        <v>236556.8519906247</v>
       </c>
     </row>
     <row r="4">
@@ -5652,28 +5652,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>145.7242116648224</v>
+        <v>176.1660797888497</v>
       </c>
       <c r="AB4" t="n">
-        <v>199.386295298211</v>
+        <v>241.0382022659216</v>
       </c>
       <c r="AC4" t="n">
-        <v>180.3571471154293</v>
+        <v>218.0338545409735</v>
       </c>
       <c r="AD4" t="n">
-        <v>145724.2116648224</v>
+        <v>176166.0797888497</v>
       </c>
       <c r="AE4" t="n">
-        <v>199386.295298211</v>
+        <v>241038.2022659216</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.443971887973252e-06</v>
+        <v>5.925288911690667e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.030092592592593</v>
       </c>
       <c r="AH4" t="n">
-        <v>180357.1471154293</v>
+        <v>218033.8545409735</v>
       </c>
     </row>
     <row r="5">
@@ -5758,28 +5758,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>127.0283153016003</v>
+        <v>157.5554347716481</v>
       </c>
       <c r="AB5" t="n">
-        <v>173.8057450893275</v>
+        <v>215.5742967096874</v>
       </c>
       <c r="AC5" t="n">
-        <v>157.2179687159458</v>
+        <v>195.0001883922023</v>
       </c>
       <c r="AD5" t="n">
-        <v>127028.3153016003</v>
+        <v>157555.4347716481</v>
       </c>
       <c r="AE5" t="n">
-        <v>173805.7450893275</v>
+        <v>215574.2967096874</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.598497008249705e-06</v>
+        <v>6.191146477180425e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.771604938271605</v>
       </c>
       <c r="AH5" t="n">
-        <v>157217.9687159458</v>
+        <v>195000.1883922023</v>
       </c>
     </row>
     <row r="6">
@@ -5864,28 +5864,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>125.1997963662305</v>
+        <v>155.7269158362784</v>
       </c>
       <c r="AB6" t="n">
-        <v>171.3038848133937</v>
+        <v>213.0724364337536</v>
       </c>
       <c r="AC6" t="n">
-        <v>154.9548824733634</v>
+        <v>192.7371021496198</v>
       </c>
       <c r="AD6" t="n">
-        <v>125199.7963662305</v>
+        <v>155726.9158362783</v>
       </c>
       <c r="AE6" t="n">
-        <v>171303.8848133937</v>
+        <v>213072.4364337536</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.623264100698194e-06</v>
+        <v>6.233757794297248e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.733024691358025</v>
       </c>
       <c r="AH6" t="n">
-        <v>154954.8824733634</v>
+        <v>192737.1021496198</v>
       </c>
     </row>
     <row r="7">
@@ -5970,28 +5970,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>125.4992732581382</v>
+        <v>156.026392728186</v>
       </c>
       <c r="AB7" t="n">
-        <v>171.7136423088897</v>
+        <v>213.4821939292495</v>
       </c>
       <c r="AC7" t="n">
-        <v>155.3255332885876</v>
+        <v>193.1077529648441</v>
       </c>
       <c r="AD7" t="n">
-        <v>125499.2732581382</v>
+        <v>156026.392728186</v>
       </c>
       <c r="AE7" t="n">
-        <v>171713.6423088897</v>
+        <v>213482.1939292495</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.622779527150289e-06</v>
+        <v>6.232924094614528e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.733024691358025</v>
       </c>
       <c r="AH7" t="n">
-        <v>155325.5332885876</v>
+        <v>193107.7529648441</v>
       </c>
     </row>
   </sheetData>
@@ -6267,28 +6267,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>102.3531357152991</v>
+        <v>128.120310818042</v>
       </c>
       <c r="AB2" t="n">
-        <v>140.0440757872728</v>
+        <v>175.2998615303646</v>
       </c>
       <c r="AC2" t="n">
-        <v>126.678465747268</v>
+        <v>158.5694887808563</v>
       </c>
       <c r="AD2" t="n">
-        <v>102353.1357152991</v>
+        <v>128120.310818042</v>
       </c>
       <c r="AE2" t="n">
-        <v>140044.0757872729</v>
+        <v>175299.8615303645</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.934411105264014e-06</v>
+        <v>7.887158048001902e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.319444444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>126678.4657472681</v>
+        <v>158569.4887808563</v>
       </c>
     </row>
   </sheetData>
@@ -6564,28 +6564,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>182.0469688393896</v>
+        <v>221.3039758166489</v>
       </c>
       <c r="AB2" t="n">
-        <v>249.0846941113805</v>
+        <v>302.7978629545564</v>
       </c>
       <c r="AC2" t="n">
-        <v>225.3124004980265</v>
+        <v>273.8992598937328</v>
       </c>
       <c r="AD2" t="n">
-        <v>182046.9688393897</v>
+        <v>221303.9758166489</v>
       </c>
       <c r="AE2" t="n">
-        <v>249084.6941113805</v>
+        <v>302797.8629545564</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.849695687392453e-06</v>
+        <v>5.047022814424143e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.577160493827161</v>
       </c>
       <c r="AH2" t="n">
-        <v>225312.4004980265</v>
+        <v>273899.2598937328</v>
       </c>
     </row>
     <row r="3">
@@ -6670,28 +6670,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>137.320363609192</v>
+        <v>166.6778674961159</v>
       </c>
       <c r="AB3" t="n">
-        <v>187.8877796368934</v>
+        <v>228.056011616626</v>
       </c>
       <c r="AC3" t="n">
-        <v>169.9560336505561</v>
+        <v>206.2906659466235</v>
       </c>
       <c r="AD3" t="n">
-        <v>137320.363609192</v>
+        <v>166677.8674961159</v>
       </c>
       <c r="AE3" t="n">
-        <v>187887.7796368934</v>
+        <v>228056.011616626</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.526728615538984e-06</v>
+        <v>6.24609843838965e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.122685185185185</v>
       </c>
       <c r="AH3" t="n">
-        <v>169956.0336505561</v>
+        <v>206290.6659466235</v>
       </c>
     </row>
     <row r="4">
@@ -6776,28 +6776,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>116.3246712638848</v>
+        <v>145.7674264968292</v>
       </c>
       <c r="AB4" t="n">
-        <v>159.1605471054847</v>
+        <v>199.4454237378666</v>
       </c>
       <c r="AC4" t="n">
-        <v>143.9704878730118</v>
+        <v>180.4106324197915</v>
       </c>
       <c r="AD4" t="n">
-        <v>116324.6712638848</v>
+        <v>145767.4264968293</v>
       </c>
       <c r="AE4" t="n">
-        <v>159160.5471054847</v>
+        <v>199445.4237378666</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.768378152604596e-06</v>
+        <v>6.674077724760804e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.729166666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>143970.4878730119</v>
+        <v>180410.6324197915</v>
       </c>
     </row>
     <row r="5">
@@ -6882,28 +6882,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>116.5298268249872</v>
+        <v>145.9725820579316</v>
       </c>
       <c r="AB5" t="n">
-        <v>159.4412499950094</v>
+        <v>199.7261266273913</v>
       </c>
       <c r="AC5" t="n">
-        <v>144.2244008727294</v>
+        <v>180.664545419509</v>
       </c>
       <c r="AD5" t="n">
-        <v>116529.8268249872</v>
+        <v>145972.5820579316</v>
       </c>
       <c r="AE5" t="n">
-        <v>159441.2499950094</v>
+        <v>199726.1266273913</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.766698864647225e-06</v>
+        <v>6.671103581005618e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.733024691358025</v>
       </c>
       <c r="AH5" t="n">
-        <v>144224.4008727294</v>
+        <v>180664.545419509</v>
       </c>
     </row>
   </sheetData>
@@ -7179,28 +7179,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>212.717993343092</v>
+        <v>252.6415087723735</v>
       </c>
       <c r="AB2" t="n">
-        <v>291.0501429474284</v>
+        <v>345.6752580589382</v>
       </c>
       <c r="AC2" t="n">
-        <v>263.2727257960527</v>
+        <v>312.684496588168</v>
       </c>
       <c r="AD2" t="n">
-        <v>212717.993343092</v>
+        <v>252641.5087723735</v>
       </c>
       <c r="AE2" t="n">
-        <v>291050.1429474283</v>
+        <v>345675.2580589382</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.619699502696354e-06</v>
+        <v>4.568527182626209e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.078703703703704</v>
       </c>
       <c r="AH2" t="n">
-        <v>263272.7257960527</v>
+        <v>312684.496588168</v>
       </c>
     </row>
     <row r="3">
@@ -7285,28 +7285,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>148.4644414060201</v>
+        <v>178.3857651414761</v>
       </c>
       <c r="AB3" t="n">
-        <v>203.13559852052</v>
+        <v>244.0752736909901</v>
       </c>
       <c r="AC3" t="n">
-        <v>183.7486221003824</v>
+        <v>220.7810721317909</v>
       </c>
       <c r="AD3" t="n">
-        <v>148464.4414060201</v>
+        <v>178385.7651414761</v>
       </c>
       <c r="AE3" t="n">
-        <v>203135.59852052</v>
+        <v>244075.2736909901</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.343770953227021e-06</v>
+        <v>5.831244567008732e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.327160493827161</v>
       </c>
       <c r="AH3" t="n">
-        <v>183748.6221003825</v>
+        <v>220781.0721317909</v>
       </c>
     </row>
     <row r="4">
@@ -7391,28 +7391,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>125.4707853096883</v>
+        <v>155.4773603911648</v>
       </c>
       <c r="AB4" t="n">
-        <v>171.6746638410209</v>
+        <v>212.7309836641402</v>
       </c>
       <c r="AC4" t="n">
-        <v>155.2902748709856</v>
+        <v>192.4282371531063</v>
       </c>
       <c r="AD4" t="n">
-        <v>125470.7853096883</v>
+        <v>155477.3603911648</v>
       </c>
       <c r="AE4" t="n">
-        <v>171674.6638410209</v>
+        <v>212730.9836641402</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.609442980675176e-06</v>
+        <v>6.294553384608258e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.864197530864198</v>
       </c>
       <c r="AH4" t="n">
-        <v>155290.2748709856</v>
+        <v>192428.2371531063</v>
       </c>
     </row>
     <row r="5">
@@ -7497,28 +7497,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>120.4310660007444</v>
+        <v>150.4376410822209</v>
       </c>
       <c r="AB5" t="n">
-        <v>164.7790975458032</v>
+        <v>205.8354173689225</v>
       </c>
       <c r="AC5" t="n">
-        <v>149.0528117449932</v>
+        <v>186.1907740271139</v>
       </c>
       <c r="AD5" t="n">
-        <v>120431.0660007444</v>
+        <v>150437.6410822209</v>
       </c>
       <c r="AE5" t="n">
-        <v>164779.0975458032</v>
+        <v>205835.4173689225</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.703338627040007e-06</v>
+        <v>6.45829919297539e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.713734567901235</v>
       </c>
       <c r="AH5" t="n">
-        <v>149052.8117449932</v>
+        <v>186190.7740271139</v>
       </c>
     </row>
     <row r="6">
@@ -7603,28 +7603,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>120.7523708425463</v>
+        <v>150.7589459240228</v>
       </c>
       <c r="AB6" t="n">
-        <v>165.2187210053255</v>
+        <v>206.2750408284448</v>
       </c>
       <c r="AC6" t="n">
-        <v>149.4504781585542</v>
+        <v>186.5884404406748</v>
       </c>
       <c r="AD6" t="n">
-        <v>120752.3708425463</v>
+        <v>150758.9459240228</v>
       </c>
       <c r="AE6" t="n">
-        <v>165218.7210053255</v>
+        <v>206275.0408284448</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.702954707925197e-06</v>
+        <v>6.457629671562673e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.713734567901235</v>
       </c>
       <c r="AH6" t="n">
-        <v>149450.4781585542</v>
+        <v>186588.4404406748</v>
       </c>
     </row>
   </sheetData>
@@ -7900,28 +7900,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>272.7351232829377</v>
+        <v>314.0849140868862</v>
       </c>
       <c r="AB2" t="n">
-        <v>373.1682279001639</v>
+        <v>429.7448359021491</v>
       </c>
       <c r="AC2" t="n">
-        <v>337.5535759742687</v>
+        <v>388.7305919143126</v>
       </c>
       <c r="AD2" t="n">
-        <v>272735.1232829377</v>
+        <v>314084.9140868862</v>
       </c>
       <c r="AE2" t="n">
-        <v>373168.2279001639</v>
+        <v>429744.8359021491</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.210435702902638e-06</v>
+        <v>3.757594195260606e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.23996913580247</v>
       </c>
       <c r="AH2" t="n">
-        <v>337553.5759742687</v>
+        <v>388730.5919143126</v>
       </c>
     </row>
     <row r="3">
@@ -8006,28 +8006,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>172.4624564097356</v>
+        <v>213.7268168505608</v>
       </c>
       <c r="AB3" t="n">
-        <v>235.9707413662884</v>
+        <v>292.4304597764985</v>
       </c>
       <c r="AC3" t="n">
-        <v>213.4500249973736</v>
+        <v>264.5213071242438</v>
       </c>
       <c r="AD3" t="n">
-        <v>172462.4564097355</v>
+        <v>213726.8168505608</v>
       </c>
       <c r="AE3" t="n">
-        <v>235970.7413662884</v>
+        <v>292430.4597764986</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.997574212457405e-06</v>
+        <v>5.095677492813712e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.813271604938272</v>
       </c>
       <c r="AH3" t="n">
-        <v>213450.0249973736</v>
+        <v>264521.3071242438</v>
       </c>
     </row>
     <row r="4">
@@ -8112,28 +8112,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>155.7370511606906</v>
+        <v>186.6640757862177</v>
       </c>
       <c r="AB4" t="n">
-        <v>213.0863040317534</v>
+        <v>255.40202352841</v>
       </c>
       <c r="AC4" t="n">
-        <v>192.7496462435298</v>
+        <v>231.0268128619243</v>
       </c>
       <c r="AD4" t="n">
-        <v>155737.0511606906</v>
+        <v>186664.0757862177</v>
       </c>
       <c r="AE4" t="n">
-        <v>213086.3040317534</v>
+        <v>255402.02352841</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.295669373349389e-06</v>
+        <v>5.602419509662292e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.195987654320987</v>
       </c>
       <c r="AH4" t="n">
-        <v>192749.6462435298</v>
+        <v>231026.8128619243</v>
       </c>
     </row>
     <row r="5">
@@ -8218,28 +8218,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>136.4252741637007</v>
+        <v>167.4375501352483</v>
       </c>
       <c r="AB5" t="n">
-        <v>186.6630787690134</v>
+        <v>229.0954429183193</v>
       </c>
       <c r="AC5" t="n">
-        <v>168.8482165146278</v>
+        <v>207.2308953837345</v>
       </c>
       <c r="AD5" t="n">
-        <v>136425.2741637007</v>
+        <v>167437.5501352483</v>
       </c>
       <c r="AE5" t="n">
-        <v>186663.0787690134</v>
+        <v>229095.4429183193</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.452737095311121e-06</v>
+        <v>5.869424227117403e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.914351851851852</v>
       </c>
       <c r="AH5" t="n">
-        <v>168848.2165146277</v>
+        <v>207230.8953837345</v>
       </c>
     </row>
     <row r="6">
@@ -8324,28 +8324,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>129.3874694003059</v>
+        <v>160.3997453718536</v>
       </c>
       <c r="AB6" t="n">
-        <v>177.0336438057083</v>
+        <v>219.4660079550142</v>
       </c>
       <c r="AC6" t="n">
-        <v>160.1378013092206</v>
+        <v>198.5204801783273</v>
       </c>
       <c r="AD6" t="n">
-        <v>129387.4694003059</v>
+        <v>160399.7453718536</v>
       </c>
       <c r="AE6" t="n">
-        <v>177033.6438057083</v>
+        <v>219466.0079550142</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.560254636027089e-06</v>
+        <v>6.052196920461298e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.736882716049383</v>
       </c>
       <c r="AH6" t="n">
-        <v>160137.8013092206</v>
+        <v>198520.4801783273</v>
       </c>
     </row>
     <row r="7">
@@ -8430,28 +8430,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>129.7013008528303</v>
+        <v>160.7135768243779</v>
       </c>
       <c r="AB7" t="n">
-        <v>177.4630418443184</v>
+        <v>219.8954059936243</v>
       </c>
       <c r="AC7" t="n">
-        <v>160.5262182016898</v>
+        <v>198.9088970707966</v>
       </c>
       <c r="AD7" t="n">
-        <v>129701.3008528303</v>
+        <v>160713.5768243779</v>
       </c>
       <c r="AE7" t="n">
-        <v>177463.0418443184</v>
+        <v>219895.4059936243</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.553319728181796e-06</v>
+        <v>6.040408036744878e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.748456790123457</v>
       </c>
       <c r="AH7" t="n">
-        <v>160526.2182016898</v>
+        <v>198908.8970707966</v>
       </c>
     </row>
   </sheetData>
@@ -8727,28 +8727,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>162.8135981456096</v>
+        <v>191.6381267376223</v>
       </c>
       <c r="AB2" t="n">
-        <v>222.7687478117341</v>
+        <v>262.207739479759</v>
       </c>
       <c r="AC2" t="n">
-        <v>201.5080111785475</v>
+        <v>237.1830008347611</v>
       </c>
       <c r="AD2" t="n">
-        <v>162813.5981456096</v>
+        <v>191638.1267376223</v>
       </c>
       <c r="AE2" t="n">
-        <v>222768.7478117341</v>
+        <v>262207.739479759</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.110735150328383e-06</v>
+        <v>5.60939160022908e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.102623456790123</v>
       </c>
       <c r="AH2" t="n">
-        <v>201508.0111785475</v>
+        <v>237183.0008347611</v>
       </c>
     </row>
     <row r="3">
@@ -8833,28 +8833,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>115.1228024202476</v>
+        <v>143.9472415037092</v>
       </c>
       <c r="AB3" t="n">
-        <v>157.5160971309099</v>
+        <v>196.9549663293864</v>
       </c>
       <c r="AC3" t="n">
-        <v>142.4829818960099</v>
+        <v>178.157860770997</v>
       </c>
       <c r="AD3" t="n">
-        <v>115122.8024202476</v>
+        <v>143947.2415037092</v>
       </c>
       <c r="AE3" t="n">
-        <v>157516.0971309099</v>
+        <v>196954.9663293864</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.758814518490913e-06</v>
+        <v>6.778032062490517e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.87962962962963</v>
       </c>
       <c r="AH3" t="n">
-        <v>142482.9818960099</v>
+        <v>178157.860770997</v>
       </c>
     </row>
     <row r="4">
@@ -8939,28 +8939,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>111.7182558639246</v>
+        <v>140.5426949473862</v>
       </c>
       <c r="AB4" t="n">
-        <v>152.8578463345573</v>
+        <v>192.2967155330339</v>
       </c>
       <c r="AC4" t="n">
-        <v>138.2693080177637</v>
+        <v>173.9441868927508</v>
       </c>
       <c r="AD4" t="n">
-        <v>111718.2558639246</v>
+        <v>140542.6949473862</v>
       </c>
       <c r="AE4" t="n">
-        <v>152857.8463345573</v>
+        <v>192296.7155330339</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.843117525731567e-06</v>
+        <v>6.9300503340042e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.748456790123457</v>
       </c>
       <c r="AH4" t="n">
-        <v>138269.3080177637</v>
+        <v>173944.1868927508</v>
       </c>
     </row>
   </sheetData>
@@ -9236,28 +9236,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>125.9462082243902</v>
+        <v>153.6161183767979</v>
       </c>
       <c r="AB2" t="n">
-        <v>172.3251584470944</v>
+        <v>210.1843502278823</v>
       </c>
       <c r="AC2" t="n">
-        <v>155.8786871848306</v>
+        <v>190.1246508377815</v>
       </c>
       <c r="AD2" t="n">
-        <v>125946.2082243902</v>
+        <v>153616.1183767979</v>
       </c>
       <c r="AE2" t="n">
-        <v>172325.1584470944</v>
+        <v>210184.3502278823</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.586010208419135e-06</v>
+        <v>6.690348806788985e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.419753086419753</v>
       </c>
       <c r="AH2" t="n">
-        <v>155878.6871848306</v>
+        <v>190124.6508377815</v>
       </c>
     </row>
     <row r="3">
@@ -9342,28 +9342,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>104.4315320922343</v>
+        <v>132.1866935906626</v>
       </c>
       <c r="AB3" t="n">
-        <v>142.8878294025709</v>
+        <v>180.863665836008</v>
       </c>
       <c r="AC3" t="n">
-        <v>129.2508155087563</v>
+        <v>163.6022914124194</v>
       </c>
       <c r="AD3" t="n">
-        <v>104431.5320922343</v>
+        <v>132186.6935906626</v>
       </c>
       <c r="AE3" t="n">
-        <v>142887.8294025709</v>
+        <v>180863.665836008</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.94156869855685e-06</v>
+        <v>7.353707297696693e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.84104938271605</v>
       </c>
       <c r="AH3" t="n">
-        <v>129250.8155087563</v>
+        <v>163602.2914124194</v>
       </c>
     </row>
   </sheetData>
@@ -16396,28 +16396,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>109.1127414640655</v>
+        <v>135.9279580575227</v>
       </c>
       <c r="AB2" t="n">
-        <v>149.2928665854892</v>
+        <v>185.9826289325028</v>
       </c>
       <c r="AC2" t="n">
-        <v>135.044564932465</v>
+        <v>168.2327078554962</v>
       </c>
       <c r="AD2" t="n">
-        <v>109112.7414640655</v>
+        <v>135927.9580575227</v>
       </c>
       <c r="AE2" t="n">
-        <v>149292.8665854892</v>
+        <v>185982.6289325028</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.940121854133072e-06</v>
+        <v>7.577000439431247e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.041666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>135044.564932465</v>
+        <v>168232.7078554961</v>
       </c>
     </row>
     <row r="3">
@@ -16502,28 +16502,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>99.635217372612</v>
+        <v>135.3318262494391</v>
       </c>
       <c r="AB3" t="n">
-        <v>136.3253000047155</v>
+        <v>185.166975093204</v>
       </c>
       <c r="AC3" t="n">
-        <v>123.3146047060622</v>
+        <v>167.4948988738424</v>
       </c>
       <c r="AD3" t="n">
-        <v>99635.21737261201</v>
+        <v>135331.8262494391</v>
       </c>
       <c r="AE3" t="n">
-        <v>136325.3000047155</v>
+        <v>185166.975093204</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.973385107576948e-06</v>
+        <v>7.640966909325265e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.991512345679012</v>
       </c>
       <c r="AH3" t="n">
-        <v>123314.6047060622</v>
+        <v>167494.8988738424</v>
       </c>
     </row>
   </sheetData>
@@ -16799,28 +16799,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>99.25570250707841</v>
+        <v>132.7786286529169</v>
       </c>
       <c r="AB2" t="n">
-        <v>135.8060310226785</v>
+        <v>181.6735775025158</v>
       </c>
       <c r="AC2" t="n">
-        <v>122.844894026872</v>
+        <v>164.3349062461941</v>
       </c>
       <c r="AD2" t="n">
-        <v>99255.70250707841</v>
+        <v>132778.6286529169</v>
       </c>
       <c r="AE2" t="n">
-        <v>135806.0310226785</v>
+        <v>181673.5775025158</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.817821071327018e-06</v>
+        <v>7.874635150803486e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.693672839506174</v>
       </c>
       <c r="AH2" t="n">
-        <v>122844.894026872</v>
+        <v>164334.9062461941</v>
       </c>
     </row>
   </sheetData>
@@ -17096,28 +17096,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>192.8396969008076</v>
+        <v>232.4806007815566</v>
       </c>
       <c r="AB2" t="n">
-        <v>263.8517807865627</v>
+        <v>318.090214309429</v>
       </c>
       <c r="AC2" t="n">
-        <v>238.6701371466704</v>
+        <v>287.7321306982512</v>
       </c>
       <c r="AD2" t="n">
-        <v>192839.6969008076</v>
+        <v>232480.6007815566</v>
       </c>
       <c r="AE2" t="n">
-        <v>263851.7807865627</v>
+        <v>318090.2143094291</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.721961764821069e-06</v>
+        <v>4.782379445453381e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.851080246913581</v>
       </c>
       <c r="AH2" t="n">
-        <v>238670.1371466704</v>
+        <v>287732.1306982512</v>
       </c>
     </row>
     <row r="3">
@@ -17202,28 +17202,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>142.350289276978</v>
+        <v>171.9957158415192</v>
       </c>
       <c r="AB3" t="n">
-        <v>194.7699458402139</v>
+        <v>235.3321263297145</v>
       </c>
       <c r="AC3" t="n">
-        <v>176.1813755706149</v>
+        <v>212.8723584835883</v>
       </c>
       <c r="AD3" t="n">
-        <v>142350.289276978</v>
+        <v>171995.7158415192</v>
       </c>
       <c r="AE3" t="n">
-        <v>194769.9458402139</v>
+        <v>235332.1263297145</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.443623130988245e-06</v>
+        <v>6.050309997873387e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.207561728395062</v>
       </c>
       <c r="AH3" t="n">
-        <v>176181.3755706149</v>
+        <v>212872.3584835883</v>
       </c>
     </row>
     <row r="4">
@@ -17308,28 +17308,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>120.5854567945944</v>
+        <v>150.3161347051561</v>
       </c>
       <c r="AB4" t="n">
-        <v>164.9903418411897</v>
+        <v>205.6691669833395</v>
       </c>
       <c r="AC4" t="n">
-        <v>149.2438951813114</v>
+        <v>186.040390344997</v>
       </c>
       <c r="AD4" t="n">
-        <v>120585.4567945944</v>
+        <v>150316.1347051561</v>
       </c>
       <c r="AE4" t="n">
-        <v>164990.3418411897</v>
+        <v>205669.1669833395</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.692670529076027e-06</v>
+        <v>6.487876451947713e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.787037037037037</v>
       </c>
       <c r="AH4" t="n">
-        <v>149243.8951813114</v>
+        <v>186040.3903449969</v>
       </c>
     </row>
     <row r="5">
@@ -17414,28 +17414,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>118.6144184866576</v>
+        <v>148.3450963972194</v>
       </c>
       <c r="AB5" t="n">
-        <v>162.2934802721988</v>
+        <v>202.9723054143487</v>
       </c>
       <c r="AC5" t="n">
-        <v>146.8044182953952</v>
+        <v>183.6009134590807</v>
       </c>
       <c r="AD5" t="n">
-        <v>118614.4184866576</v>
+        <v>148345.0963972193</v>
       </c>
       <c r="AE5" t="n">
-        <v>162293.4802721989</v>
+        <v>202972.3054143487</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.731168736743067e-06</v>
+        <v>6.555516284150041e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.729166666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>146804.4182953952</v>
+        <v>183600.9134590807</v>
       </c>
     </row>
   </sheetData>
@@ -17711,28 +17711,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>248.5881377465963</v>
+        <v>299.7923307541056</v>
       </c>
       <c r="AB2" t="n">
-        <v>340.1292569993636</v>
+        <v>410.1890928419637</v>
       </c>
       <c r="AC2" t="n">
-        <v>307.6677980858561</v>
+        <v>371.0412215251335</v>
       </c>
       <c r="AD2" t="n">
-        <v>248588.1377465963</v>
+        <v>299792.3307541056</v>
       </c>
       <c r="AE2" t="n">
-        <v>340129.2569993636</v>
+        <v>410189.0928419636</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.308836158662357e-06</v>
+        <v>3.947852529080241e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.919753086419753</v>
       </c>
       <c r="AH2" t="n">
-        <v>307667.7980858561</v>
+        <v>371041.2215251335</v>
       </c>
     </row>
     <row r="3">
@@ -17817,28 +17817,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>166.1775050180444</v>
+        <v>207.1237912531345</v>
       </c>
       <c r="AB3" t="n">
-        <v>227.3713935996944</v>
+        <v>283.3959088491743</v>
       </c>
       <c r="AC3" t="n">
-        <v>205.6713869123602</v>
+        <v>256.3490010573486</v>
       </c>
       <c r="AD3" t="n">
-        <v>166177.5050180444</v>
+        <v>207123.7912531345</v>
       </c>
       <c r="AE3" t="n">
-        <v>227371.3935996944</v>
+        <v>283395.9088491743</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.081864439277982e-06</v>
+        <v>5.269644740809562e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.682098765432099</v>
       </c>
       <c r="AH3" t="n">
-        <v>205671.3869123602</v>
+        <v>256349.0010573486</v>
       </c>
     </row>
     <row r="4">
@@ -17923,28 +17923,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>150.5039350762373</v>
+        <v>181.192404047463</v>
       </c>
       <c r="AB4" t="n">
-        <v>205.9261237362202</v>
+        <v>247.9154408623291</v>
       </c>
       <c r="AC4" t="n">
-        <v>186.2728235060239</v>
+        <v>224.254739138007</v>
       </c>
       <c r="AD4" t="n">
-        <v>150503.9350762373</v>
+        <v>181192.404047463</v>
       </c>
       <c r="AE4" t="n">
-        <v>205926.1237362202</v>
+        <v>247915.4408623291</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.370215410959076e-06</v>
+        <v>5.762692767861197e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.111111111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>186272.8235060239</v>
+        <v>224254.739138007</v>
       </c>
     </row>
     <row r="5">
@@ -18029,28 +18029,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>131.791696670685</v>
+        <v>162.5654169879312</v>
       </c>
       <c r="AB5" t="n">
-        <v>180.3232136240607</v>
+        <v>222.4291754028188</v>
       </c>
       <c r="AC5" t="n">
-        <v>163.1134192010507</v>
+        <v>201.2008470837461</v>
       </c>
       <c r="AD5" t="n">
-        <v>131791.696670685</v>
+        <v>162565.4169879312</v>
       </c>
       <c r="AE5" t="n">
-        <v>180323.2136240607</v>
+        <v>222429.1754028188</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.516419282013226e-06</v>
+        <v>6.012685094054169e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.856481481481482</v>
       </c>
       <c r="AH5" t="n">
-        <v>163113.4192010507</v>
+        <v>201200.8470837461</v>
       </c>
     </row>
     <row r="6">
@@ -18135,28 +18135,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>127.3821027053702</v>
+        <v>158.1558230226164</v>
       </c>
       <c r="AB6" t="n">
-        <v>174.289812623164</v>
+        <v>216.3957744019221</v>
       </c>
       <c r="AC6" t="n">
-        <v>157.6558375237461</v>
+        <v>195.7432654064415</v>
       </c>
       <c r="AD6" t="n">
-        <v>127382.1027053702</v>
+        <v>158155.8230226164</v>
       </c>
       <c r="AE6" t="n">
-        <v>174289.812623164</v>
+        <v>216395.7744019221</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.591629670591282e-06</v>
+        <v>6.141286476896775e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.733024691358025</v>
       </c>
       <c r="AH6" t="n">
-        <v>157655.8375237461</v>
+        <v>195743.2654064415</v>
       </c>
     </row>
     <row r="7">
@@ -18241,28 +18241,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>127.6028482270247</v>
+        <v>158.3765685442709</v>
       </c>
       <c r="AB7" t="n">
-        <v>174.5918463844966</v>
+        <v>216.6978081632548</v>
       </c>
       <c r="AC7" t="n">
-        <v>157.9290456068044</v>
+        <v>196.0164734894997</v>
       </c>
       <c r="AD7" t="n">
-        <v>127602.8482270247</v>
+        <v>158376.5685442709</v>
       </c>
       <c r="AE7" t="n">
-        <v>174591.8463844966</v>
+        <v>216697.8081632548</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.590295206634964e-06</v>
+        <v>6.139004692247331e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.736882716049383</v>
       </c>
       <c r="AH7" t="n">
-        <v>157929.0456068044</v>
+        <v>196016.4734894997</v>
       </c>
     </row>
   </sheetData>
@@ -18538,28 +18538,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>104.490130766972</v>
+        <v>137.0418446339606</v>
       </c>
       <c r="AB2" t="n">
-        <v>142.9680066945382</v>
+        <v>187.506697687592</v>
       </c>
       <c r="AC2" t="n">
-        <v>129.3233407925077</v>
+        <v>169.611321627644</v>
       </c>
       <c r="AD2" t="n">
-        <v>104490.130766972</v>
+        <v>137041.8446339606</v>
       </c>
       <c r="AE2" t="n">
-        <v>142968.0066945382</v>
+        <v>187506.697687592</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.50671505440531e-06</v>
+        <v>7.516505521095555e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.546296296296295</v>
       </c>
       <c r="AH2" t="n">
-        <v>129323.3407925077</v>
+        <v>169611.321627644</v>
       </c>
     </row>
   </sheetData>
@@ -18835,28 +18835,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>134.9077694572877</v>
+        <v>172.3354045030331</v>
       </c>
       <c r="AB2" t="n">
-        <v>184.5867618821174</v>
+        <v>235.7969033424037</v>
       </c>
       <c r="AC2" t="n">
-        <v>166.9700603972874</v>
+        <v>213.2927778305052</v>
       </c>
       <c r="AD2" t="n">
-        <v>134907.7694572877</v>
+        <v>172335.4045030331</v>
       </c>
       <c r="AE2" t="n">
-        <v>184586.7618821174</v>
+        <v>235796.9033424036</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.415283519783931e-06</v>
+        <v>6.292429473454513e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.639660493827162</v>
       </c>
       <c r="AH2" t="n">
-        <v>166970.0603972874</v>
+        <v>213292.7778305052</v>
       </c>
     </row>
     <row r="3">
@@ -18941,28 +18941,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>107.0151701598732</v>
+        <v>135.149902085111</v>
       </c>
       <c r="AB3" t="n">
-        <v>146.4228769887798</v>
+        <v>184.9180584256428</v>
       </c>
       <c r="AC3" t="n">
-        <v>132.448483114809</v>
+        <v>167.2697384636764</v>
       </c>
       <c r="AD3" t="n">
-        <v>107015.1701598732</v>
+        <v>135149.902085111</v>
       </c>
       <c r="AE3" t="n">
-        <v>146422.8769887798</v>
+        <v>184918.0584256428</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.905809824785689e-06</v>
+        <v>7.196191097114112e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.806327160493828</v>
       </c>
       <c r="AH3" t="n">
-        <v>132448.483114809</v>
+        <v>167269.7384636764</v>
       </c>
     </row>
     <row r="4">
@@ -19047,28 +19047,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>107.4268138366844</v>
+        <v>135.5615457619222</v>
       </c>
       <c r="AB4" t="n">
-        <v>146.9861060278299</v>
+        <v>185.4812874646928</v>
       </c>
       <c r="AC4" t="n">
-        <v>132.9579583648692</v>
+        <v>167.7792137137367</v>
       </c>
       <c r="AD4" t="n">
-        <v>107426.8138366844</v>
+        <v>135561.5457619222</v>
       </c>
       <c r="AE4" t="n">
-        <v>146986.1060278299</v>
+        <v>185481.2874646928</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.904810430348365e-06</v>
+        <v>7.194349780287384e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.810185185185186</v>
       </c>
       <c r="AH4" t="n">
-        <v>132957.9583648692</v>
+        <v>167779.2137137367</v>
       </c>
     </row>
   </sheetData>
@@ -19344,28 +19344,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>172.040535950569</v>
+        <v>210.7250007135858</v>
       </c>
       <c r="AB2" t="n">
-        <v>235.39345118024</v>
+        <v>288.3232425071099</v>
       </c>
       <c r="AC2" t="n">
-        <v>212.9278305764496</v>
+        <v>260.8060769065286</v>
       </c>
       <c r="AD2" t="n">
-        <v>172040.535950569</v>
+        <v>210725.0007135858</v>
       </c>
       <c r="AE2" t="n">
-        <v>235393.45118024</v>
+        <v>288323.2425071099</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.979601939748324e-06</v>
+        <v>5.322841419134021e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.330246913580248</v>
       </c>
       <c r="AH2" t="n">
-        <v>212927.8305764496</v>
+        <v>260806.0769065286</v>
       </c>
     </row>
     <row r="3">
@@ -19450,28 +19450,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>120.8889027752113</v>
+        <v>159.5732780296771</v>
       </c>
       <c r="AB3" t="n">
-        <v>165.4055300189615</v>
+        <v>218.335198876283</v>
       </c>
       <c r="AC3" t="n">
-        <v>149.619458382117</v>
+        <v>197.4975939309694</v>
       </c>
       <c r="AD3" t="n">
-        <v>120888.9027752113</v>
+        <v>159573.2780296771</v>
       </c>
       <c r="AE3" t="n">
-        <v>165405.5300189615</v>
+        <v>218335.198876283</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.64940816954111e-06</v>
+        <v>6.519401367351865e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.983796296296296</v>
       </c>
       <c r="AH3" t="n">
-        <v>149619.458382117</v>
+        <v>197497.5939309694</v>
       </c>
     </row>
     <row r="4">
@@ -19556,28 +19556,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>114.0767503276666</v>
+        <v>143.2180430503733</v>
       </c>
       <c r="AB4" t="n">
-        <v>156.0848425092799</v>
+        <v>195.9572448355674</v>
       </c>
       <c r="AC4" t="n">
-        <v>141.1883242066893</v>
+        <v>177.2553604162368</v>
       </c>
       <c r="AD4" t="n">
-        <v>114076.7503276666</v>
+        <v>143218.0430503733</v>
       </c>
       <c r="AE4" t="n">
-        <v>156084.8425092799</v>
+        <v>195957.2448355674</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.80302098918431e-06</v>
+        <v>6.79381945924499e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.740740740740741</v>
       </c>
       <c r="AH4" t="n">
-        <v>141188.3242066893</v>
+        <v>177255.3604162368</v>
       </c>
     </row>
     <row r="5">
@@ -19662,28 +19662,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>114.2883237561047</v>
+        <v>143.4296164788114</v>
       </c>
       <c r="AB5" t="n">
-        <v>156.3743266080296</v>
+        <v>196.2467289343171</v>
       </c>
       <c r="AC5" t="n">
-        <v>141.4501803493479</v>
+        <v>177.5172165588954</v>
       </c>
       <c r="AD5" t="n">
-        <v>114288.3237561047</v>
+        <v>143429.6164788114</v>
       </c>
       <c r="AE5" t="n">
-        <v>156374.3266080296</v>
+        <v>196246.7289343171</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.805341595523798e-06</v>
+        <v>6.797965053116625e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.736882716049383</v>
       </c>
       <c r="AH5" t="n">
-        <v>141450.1803493479</v>
+        <v>177517.2165588954</v>
       </c>
     </row>
   </sheetData>
